--- a/absolute_reference.xlsx
+++ b/absolute_reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vishal data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{ADD93C2B-C139-4317-8878-5295C4C9CC1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730DAD4C-4A69-4CFF-829A-EAE0EDDFAF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{AFBD9724-262D-49B3-9A4A-68F38ADADA2D}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>sumif</t>
-  </si>
-  <si>
-    <t>sumifs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>absolute reference</t>
   </si>
@@ -69,8 +63,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,20 +382,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AA40CF-F50F-4F18-AE94-B986B595ACC5}">
-  <dimension ref="C1:L7"/>
+  <dimension ref="C1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D2">
         <v>10</v>
       </c>
@@ -415,7 +412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>100</v>
       </c>
@@ -439,14 +436,8 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>200</v>
       </c>
@@ -470,16 +461,8 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K4">
-        <f>SUMIF(D3:D7,D4,E3:E7)</f>
-        <v>4000</v>
-      </c>
-      <c r="L4">
-        <f>SUMIFS(E3:E7,C3:C7,C4,G3:G7,G3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>300</v>
       </c>
@@ -504,7 +487,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>400</v>
       </c>
@@ -529,7 +512,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>500</v>
       </c>
@@ -554,7 +537,283 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="P8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f>$N10*O$9</f>
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:S10" si="2">$N10*P$9</f>
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:S19" si="3">$N11*O$9</f>
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P8:Q8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>